--- a/team_specific_matrix/North Carolina_B.xlsx
+++ b/team_specific_matrix/North Carolina_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2037037037037037</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="C2">
-        <v>0.5462962962962963</v>
+        <v>0.5411255411255411</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02777777777777778</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1527777777777778</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06944444444444445</v>
+        <v>0.06926406926406926</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03225806451612903</v>
+        <v>0.03053435114503817</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03225806451612903</v>
+        <v>0.03053435114503817</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.782258064516129</v>
+        <v>0.7786259541984732</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1532258064516129</v>
+        <v>0.1603053435114504</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06666666666666667</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2333333333333333</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07608695652173914</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005434782608695652</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07065217391304347</v>
+        <v>0.09345794392523364</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2608695652173913</v>
+        <v>0.2383177570093458</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0108695652173913</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1521739130434783</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="R6">
-        <v>0.08695652173913043</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="S6">
-        <v>0.3369565217391304</v>
+        <v>0.3644859813084112</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1117021276595745</v>
+        <v>0.1013824884792627</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0425531914893617</v>
+        <v>0.03686635944700461</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0851063829787234</v>
+        <v>0.07834101382488479</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09574468085106383</v>
+        <v>0.1013824884792627</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03191489361702127</v>
+        <v>0.02764976958525346</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2021276595744681</v>
+        <v>0.184331797235023</v>
       </c>
       <c r="R7">
-        <v>0.04787234042553191</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="S7">
-        <v>0.3829787234042553</v>
+        <v>0.4101382488479263</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09264305177111716</v>
+        <v>0.08705882352941176</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01907356948228883</v>
+        <v>0.0188235294117647</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04359673024523161</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09809264305177112</v>
+        <v>0.1082352941176471</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02997275204359673</v>
+        <v>0.02823529411764706</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1825613079019074</v>
+        <v>0.1835294117647059</v>
       </c>
       <c r="R8">
-        <v>0.08991825613079019</v>
+        <v>0.08941176470588236</v>
       </c>
       <c r="S8">
-        <v>0.444141689373297</v>
+        <v>0.4376470588235294</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06432748538011696</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01754385964912281</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08771929824561403</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09941520467836257</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02339181286549707</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2046783625730994</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="R9">
-        <v>0.06432748538011696</v>
+        <v>0.06878306878306878</v>
       </c>
       <c r="S9">
-        <v>0.4385964912280702</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09361702127659574</v>
+        <v>0.08691588785046729</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01276595744680851</v>
+        <v>0.01214953271028037</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07872340425531915</v>
+        <v>0.07757009345794393</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1361702127659574</v>
+        <v>0.1364485981308411</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02127659574468085</v>
+        <v>0.02149532710280374</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2085106382978723</v>
+        <v>0.202803738317757</v>
       </c>
       <c r="R10">
-        <v>0.07765957446808511</v>
+        <v>0.08224299065420561</v>
       </c>
       <c r="S10">
-        <v>0.3712765957446809</v>
+        <v>0.3803738317757009</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1206225680933852</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06614785992217899</v>
+        <v>0.0584192439862543</v>
       </c>
       <c r="K11">
-        <v>0.1439688715953307</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="L11">
-        <v>0.6575875486381323</v>
+        <v>0.6597938144329897</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01167315175097276</v>
+        <v>0.01718213058419244</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7586206896551724</v>
+        <v>0.7563451776649747</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1666666666666667</v>
+        <v>0.1725888324873096</v>
       </c>
       <c r="K12">
-        <v>0.005747126436781609</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="L12">
-        <v>0.03448275862068965</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03448275862068965</v>
+        <v>0.03553299492385787</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7045454545454546</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04545454545454546</v>
+        <v>0.03508771929824561</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01265822784810127</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1139240506329114</v>
+        <v>0.1104972375690608</v>
       </c>
       <c r="I15">
-        <v>0.0759493670886076</v>
+        <v>0.06629834254143646</v>
       </c>
       <c r="J15">
-        <v>0.3291139240506329</v>
+        <v>0.3204419889502763</v>
       </c>
       <c r="K15">
-        <v>0.08860759493670886</v>
+        <v>0.08839779005524862</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01265822784810127</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08227848101265822</v>
+        <v>0.09392265193370165</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2848101265822785</v>
+        <v>0.292817679558011</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04794520547945205</v>
+        <v>0.04487179487179487</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1917808219178082</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="I16">
-        <v>0.0821917808219178</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J16">
-        <v>0.3835616438356164</v>
+        <v>0.3782051282051282</v>
       </c>
       <c r="K16">
-        <v>0.1232876712328767</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.00684931506849315</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02054794520547945</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1438356164383562</v>
+        <v>0.1346153846153846</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01652892561983471</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2176308539944904</v>
+        <v>0.2128712871287129</v>
       </c>
       <c r="I17">
-        <v>0.09917355371900827</v>
+        <v>0.09653465346534654</v>
       </c>
       <c r="J17">
-        <v>0.3801652892561984</v>
+        <v>0.3737623762376238</v>
       </c>
       <c r="K17">
-        <v>0.1046831955922865</v>
+        <v>0.1064356435643564</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02754820936639119</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03581267217630854</v>
+        <v>0.04207920792079208</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1184573002754821</v>
+        <v>0.1237623762376238</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01418439716312057</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1134751773049645</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="I18">
-        <v>0.1134751773049645</v>
+        <v>0.1197604790419162</v>
       </c>
       <c r="J18">
-        <v>0.4539007092198581</v>
+        <v>0.4670658682634731</v>
       </c>
       <c r="K18">
-        <v>0.1560283687943262</v>
+        <v>0.1497005988023952</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03546099290780142</v>
+        <v>0.04191616766467066</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05673758865248227</v>
+        <v>0.04790419161676647</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05673758865248227</v>
+        <v>0.0658682634730539</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01554907677356657</v>
+        <v>0.01595298068849706</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.216715257531584</v>
+        <v>0.2250209907640638</v>
       </c>
       <c r="I19">
-        <v>0.0913508260447036</v>
+        <v>0.0873215785054576</v>
       </c>
       <c r="J19">
-        <v>0.3284742468415938</v>
+        <v>0.3249370277078086</v>
       </c>
       <c r="K19">
-        <v>0.1205053449951409</v>
+        <v>0.1192275398824517</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02526724975704567</v>
+        <v>0.02854743912678422</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05636540330417882</v>
+        <v>0.05625524769101595</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1457725947521866</v>
+        <v>0.1427371956339211</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/North Carolina_B.xlsx
+++ b/team_specific_matrix/North Carolina_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2077922077922078</v>
+        <v>0.2054263565891473</v>
       </c>
       <c r="C2">
-        <v>0.5411255411255411</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02597402597402598</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1558441558441558</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06926406926406926</v>
+        <v>0.06976744186046512</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03053435114503817</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03053435114503817</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7786259541984732</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1603053435114504</v>
+        <v>0.1836734693877551</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09090909090909091</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.696969696969697</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2121212121212121</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06542056074766354</v>
+        <v>0.06854838709677419</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009345794392523364</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09345794392523364</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2383177570093458</v>
+        <v>0.2338709677419355</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009345794392523364</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1448598130841121</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="R6">
-        <v>0.07476635514018691</v>
+        <v>0.06854838709677419</v>
       </c>
       <c r="S6">
-        <v>0.3644859813084112</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1013824884792627</v>
+        <v>0.100418410041841</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03686635944700461</v>
+        <v>0.03347280334728033</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07834101382488479</v>
+        <v>0.08368200836820083</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1013824884792627</v>
+        <v>0.100418410041841</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02764976958525346</v>
+        <v>0.02928870292887029</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.184331797235023</v>
+        <v>0.1841004184100418</v>
       </c>
       <c r="R7">
-        <v>0.05990783410138249</v>
+        <v>0.06276150627615062</v>
       </c>
       <c r="S7">
-        <v>0.4101382488479263</v>
+        <v>0.4058577405857741</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08705882352941176</v>
+        <v>0.08172043010752689</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0188235294117647</v>
+        <v>0.01720430107526882</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04705882352941176</v>
+        <v>0.05806451612903226</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1082352941176471</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02823529411764706</v>
+        <v>0.02795698924731183</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1835294117647059</v>
+        <v>0.1698924731182796</v>
       </c>
       <c r="R8">
-        <v>0.08941176470588236</v>
+        <v>0.09462365591397849</v>
       </c>
       <c r="S8">
-        <v>0.4376470588235294</v>
+        <v>0.443010752688172</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06349206349206349</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01587301587301587</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08994708994708994</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09523809523809523</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02645502645502645</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2116402116402116</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="R9">
-        <v>0.06878306878306878</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S9">
-        <v>0.4285714285714285</v>
+        <v>0.4190476190476191</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08691588785046729</v>
+        <v>0.08894430590191189</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01214953271028037</v>
+        <v>0.01080631753948462</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07757009345794393</v>
+        <v>0.07730673316708229</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1364485981308411</v>
+        <v>0.1321695760598504</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02149532710280374</v>
+        <v>0.02161263507896924</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.202803738317757</v>
+        <v>0.200332502078138</v>
       </c>
       <c r="R10">
-        <v>0.08224299065420561</v>
+        <v>0.08478802992518704</v>
       </c>
       <c r="S10">
-        <v>0.3803738317757009</v>
+        <v>0.3840399002493766</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1202749140893471</v>
+        <v>0.1141975308641975</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0584192439862543</v>
+        <v>0.05864197530864197</v>
       </c>
       <c r="K11">
-        <v>0.1443298969072165</v>
+        <v>0.1450617283950617</v>
       </c>
       <c r="L11">
-        <v>0.6597938144329897</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01718213058419244</v>
+        <v>0.0154320987654321</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7563451776649747</v>
+        <v>0.7533632286995515</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1725888324873096</v>
+        <v>0.1659192825112108</v>
       </c>
       <c r="K12">
-        <v>0.005076142131979695</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="L12">
-        <v>0.03045685279187817</v>
+        <v>0.03139013452914798</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03553299492385787</v>
+        <v>0.04484304932735426</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6842105263157895</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2807017543859649</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03508771929824561</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01104972375690608</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1104972375690608</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="I15">
-        <v>0.06629834254143646</v>
+        <v>0.07075471698113207</v>
       </c>
       <c r="J15">
-        <v>0.3204419889502763</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="K15">
-        <v>0.08839779005524862</v>
+        <v>0.08962264150943396</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01657458563535912</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09392265193370165</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.292817679558011</v>
+        <v>0.2877358490566038</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04487179487179487</v>
+        <v>0.04117647058823529</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2115384615384615</v>
+        <v>0.1941176470588235</v>
       </c>
       <c r="I16">
-        <v>0.08333333333333333</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="J16">
-        <v>0.3782051282051282</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
-        <v>0.1153846153846154</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.00641025641025641</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02564102564102564</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1346153846153846</v>
+        <v>0.1235294117647059</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01485148514851485</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2128712871287129</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="I17">
-        <v>0.09653465346534654</v>
+        <v>0.09954751131221719</v>
       </c>
       <c r="J17">
-        <v>0.3737623762376238</v>
+        <v>0.3755656108597285</v>
       </c>
       <c r="K17">
-        <v>0.1064356435643564</v>
+        <v>0.1131221719457014</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0297029702970297</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04207920792079208</v>
+        <v>0.04298642533936652</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1237623762376238</v>
+        <v>0.1221719457013575</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01197604790419162</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.09580838323353294</v>
+        <v>0.109375</v>
       </c>
       <c r="I18">
-        <v>0.1197604790419162</v>
+        <v>0.1197916666666667</v>
       </c>
       <c r="J18">
-        <v>0.4670658682634731</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="K18">
-        <v>0.1497005988023952</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04191616766467066</v>
+        <v>0.03645833333333334</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04790419161676647</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0658682634730539</v>
+        <v>0.06770833333333333</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01595298068849706</v>
+        <v>0.01728024042073629</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2250209907640638</v>
+        <v>0.2216378662659654</v>
       </c>
       <c r="I19">
-        <v>0.0873215785054576</v>
+        <v>0.08489857250187828</v>
       </c>
       <c r="J19">
-        <v>0.3249370277078086</v>
+        <v>0.3305785123966942</v>
       </c>
       <c r="K19">
-        <v>0.1192275398824517</v>
+        <v>0.1187077385424493</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02854743912678422</v>
+        <v>0.02779864763335838</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05625524769101595</v>
+        <v>0.06311044327573254</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1427371956339211</v>
+        <v>0.1359879789631856</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/North Carolina_B.xlsx
+++ b/team_specific_matrix/North Carolina_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2054263565891473</v>
+        <v>0.2052238805970149</v>
       </c>
       <c r="C2">
-        <v>0.5465116279069767</v>
+        <v>0.5485074626865671</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02325581395348837</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1550387596899225</v>
+        <v>0.1529850746268657</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06976744186046512</v>
+        <v>0.0708955223880597</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0272108843537415</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0272108843537415</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7619047619047619</v>
+        <v>0.7516339869281046</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1836734693877551</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06854838709677419</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008064516129032258</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09274193548387097</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2338709677419355</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.008064516129032258</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1451612903225807</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="R6">
-        <v>0.06854838709677419</v>
+        <v>0.06589147286821706</v>
       </c>
       <c r="S6">
-        <v>0.375</v>
+        <v>0.3837209302325582</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.100418410041841</v>
+        <v>0.102880658436214</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03347280334728033</v>
+        <v>0.03292181069958848</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08368200836820083</v>
+        <v>0.08230452674897119</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.100418410041841</v>
+        <v>0.102880658436214</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02928870292887029</v>
+        <v>0.02880658436213992</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1841004184100418</v>
+        <v>0.1810699588477366</v>
       </c>
       <c r="R7">
-        <v>0.06276150627615062</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="S7">
-        <v>0.4058577405857741</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08172043010752689</v>
+        <v>0.08057851239669421</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01720430107526882</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05806451612903226</v>
+        <v>0.05991735537190083</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1075268817204301</v>
+        <v>0.109504132231405</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02795698924731183</v>
+        <v>0.02685950413223141</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1698924731182796</v>
+        <v>0.1694214876033058</v>
       </c>
       <c r="R8">
-        <v>0.09462365591397849</v>
+        <v>0.09504132231404959</v>
       </c>
       <c r="S8">
-        <v>0.443010752688172</v>
+        <v>0.4421487603305785</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06666666666666667</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01904761904761905</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08571428571428572</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1047619047619048</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02380952380952381</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2095238095238095</v>
+        <v>0.2</v>
       </c>
       <c r="R9">
-        <v>0.07142857142857142</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="S9">
-        <v>0.4190476190476191</v>
+        <v>0.4136363636363636</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08894430590191189</v>
+        <v>0.08828250401284109</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01080631753948462</v>
+        <v>0.01043338683788122</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07730673316708229</v>
+        <v>0.07784911717495988</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1321695760598504</v>
+        <v>0.1308186195826645</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02161263507896924</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.200332502078138</v>
+        <v>0.2014446227929374</v>
       </c>
       <c r="R10">
-        <v>0.08478802992518704</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="S10">
-        <v>0.3840399002493766</v>
+        <v>0.3844301765650081</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1141975308641975</v>
+        <v>0.1148036253776435</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05864197530864197</v>
+        <v>0.05740181268882175</v>
       </c>
       <c r="K11">
-        <v>0.1450617283950617</v>
+        <v>0.1450151057401813</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.6676737160120846</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0154320987654321</v>
+        <v>0.01510574018126888</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7533632286995515</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1659192825112108</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K12">
-        <v>0.004484304932735426</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="L12">
-        <v>0.03139013452914798</v>
+        <v>0.03070175438596491</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04484304932735426</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6774193548387096</v>
+        <v>0.671875</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2903225806451613</v>
+        <v>0.296875</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01415094339622642</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1132075471698113</v>
+        <v>0.1165919282511211</v>
       </c>
       <c r="I15">
-        <v>0.07075471698113207</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="J15">
-        <v>0.3207547169811321</v>
+        <v>0.3139013452914798</v>
       </c>
       <c r="K15">
-        <v>0.08962264150943396</v>
+        <v>0.08520179372197309</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01886792452830189</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08490566037735849</v>
+        <v>0.08968609865470852</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2877358490566038</v>
+        <v>0.2914798206278027</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04117647058823529</v>
+        <v>0.04022988505747126</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1941176470588235</v>
+        <v>0.2011494252873563</v>
       </c>
       <c r="I16">
-        <v>0.08823529411764706</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="J16">
-        <v>0.4</v>
+        <v>0.4022988505747127</v>
       </c>
       <c r="K16">
-        <v>0.1176470588235294</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01176470588235294</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02352941176470588</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1235294117647059</v>
+        <v>0.1206896551724138</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01357466063348416</v>
+        <v>0.01318681318681319</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2058823529411765</v>
+        <v>0.2043956043956044</v>
       </c>
       <c r="I17">
-        <v>0.09954751131221719</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="J17">
-        <v>0.3755656108597285</v>
+        <v>0.378021978021978</v>
       </c>
       <c r="K17">
-        <v>0.1131221719457014</v>
+        <v>0.1120879120879121</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02714932126696833</v>
+        <v>0.02637362637362637</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04298642533936652</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1221719457013575</v>
+        <v>0.1208791208791209</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02083333333333333</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.109375</v>
+        <v>0.1065989847715736</v>
       </c>
       <c r="I18">
-        <v>0.1197916666666667</v>
+        <v>0.116751269035533</v>
       </c>
       <c r="J18">
-        <v>0.4583333333333333</v>
+        <v>0.4619289340101523</v>
       </c>
       <c r="K18">
-        <v>0.1354166666666667</v>
+        <v>0.1370558375634518</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03645833333333334</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05208333333333334</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06770833333333333</v>
+        <v>0.06598984771573604</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01728024042073629</v>
+        <v>0.01729106628242075</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2216378662659654</v>
+        <v>0.2219020172910663</v>
       </c>
       <c r="I19">
-        <v>0.08489857250187828</v>
+        <v>0.08717579250720461</v>
       </c>
       <c r="J19">
-        <v>0.3305785123966942</v>
+        <v>0.3285302593659942</v>
       </c>
       <c r="K19">
-        <v>0.1187077385424493</v>
+        <v>0.1167146974063401</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02779864763335838</v>
+        <v>0.02737752161383285</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0007204610951008645</v>
       </c>
       <c r="O19">
-        <v>0.06311044327573254</v>
+        <v>0.06268011527377522</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1359879789631856</v>
+        <v>0.1376080691642651</v>
       </c>
     </row>
   </sheetData>
